--- a/Population/BCIO_Population.xlsx
+++ b/Population/BCIO_Population.xlsx
@@ -7826,7 +7826,7 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>equivalent to: organization or Homo sapiens and bearer of some owner role</t>
+          <t>'organization' or 'Homo sapiens' and 'bearer of' some 'owner role'</t>
         </is>
       </c>
       <c r="K142" t="inlineStr"/>

--- a/Population/BCIO_Population.xlsx
+++ b/Population/BCIO_Population.xlsx
@@ -8184,7 +8184,7 @@
       <c r="I149" s="2" t="inlineStr"/>
       <c r="J149" s="2" t="inlineStr">
         <is>
-          <t>person' is part of 'social environmental system'</t>
+          <t>'person' that 'is part of 'social environmental system'</t>
         </is>
       </c>
       <c r="K149" s="2" t="inlineStr"/>

--- a/Population/BCIO_Population.xlsx
+++ b/Population/BCIO_Population.xlsx
@@ -8184,7 +8184,7 @@
       <c r="I149" s="2" t="inlineStr"/>
       <c r="J149" s="2" t="inlineStr">
         <is>
-          <t>'person' that 'is part of 'social environmental system'</t>
+          <t>'person' that 'is part of' some 'social environmental system'</t>
         </is>
       </c>
       <c r="K149" s="2" t="inlineStr"/>
